--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1833.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1833.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.409071431614246</v>
+        <v>0.3451510965824127</v>
       </c>
       <c r="B1">
-        <v>1.613325378072199</v>
+        <v>2.689388990402222</v>
       </c>
       <c r="C1">
-        <v>1.658985888001568</v>
+        <v>4.765698432922363</v>
       </c>
       <c r="D1">
-        <v>1.937717723111473</v>
+        <v>1.665093779563904</v>
       </c>
       <c r="E1">
-        <v>2.416180862064901</v>
+        <v>0.8366559147834778</v>
       </c>
     </row>
   </sheetData>
